--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020\shixun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\xuanxuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F37C295-7592-4334-A6A4-1BDC081957EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C108A38-99EF-4740-91F0-3348725A59B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{600604C1-694C-46F8-8026-40128966B416}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="119">
   <si>
     <t>用例类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.4添加好友功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.5退出登录功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,14 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.16进行界面截图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.17发送文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.网络与流量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,40 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现欢迎界面、界面停留时间合理、
-正常进入应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动时间符合预期、拉取信息是否正
-确、是否可以正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序异常退出后重启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动后记录可以保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆后林如聊天界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将输入的文本显示在文本框内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户点击注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,61 +217,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入登录信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入完成后登陆成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入用户名或账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到用户并添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出登录返回到登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择图片上传修改成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击头像下的箭头后选
-择在线状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击头像下的箭头后点
-击修改头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击头像下的箭头后点
-击修改密码，输入新密码并重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击头像下的箭头后点击语言，设置不同种类语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索框中输入好友用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,50 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择一名好友进行聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与该好友成功进行会话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择多名成员进行会话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与多名好友成功进行会话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击应用中的主题，选择其中的主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成主题更换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在会话界面进行发送表情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在会话界面进行发送图片，在文件中选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在会话界面进行截图并发送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在会话界面进行发送文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆、发送信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,18 +313,269 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.点击头像下的箭头后点击退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3异常退出后的启动</t>
+  </si>
+  <si>
+    <t>1.点击应用
+2.启动后台管理
+3.输入用户名密码
+4.点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现欢迎界面、登录界面、界面停留时间合理、登陆成功后正常进入应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击应用
+2.启动后台管理
+3.输入用户名密码
+4.点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序正在运行中突然退出，重新启动后记录可以保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序启动后异常退出
+再重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动时间符合预期、拉取信息正确、可以正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆后进入聊天界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择一盒聊天对象
+2.点击进入聊天界面
+3.点击聊天输入框输入文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.所选的表情显示在文本框
+2.发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入会话界面
+2.点击表情按钮
+3.选择要发送的表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入会话界面
+2.点击图片按钮
+3.选择后确认进行发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的文本显示在文本框内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登陆显示主页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入完成后登陆成功
+2.选择记住密码后下次登录该账号无需输入密码
+3.选择自动登录后下次点击运行程序后自动进入主页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入登录信息
+2.点击记住密码
+3.点击自动登录
+4.点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择一名好友
+2.在文本框输入内容
+3.点击发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.发送成功
+2.该好友收到所发送的消息
+3.成功进行会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成登陆显示主页面
+2.该账户有多个可聊天用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击左侧会话按钮
+2.选择多名会话成员
+3.点击邀请
+4.设置群名称
+5.设置可见性和群头像
+6.点击开始会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.成功创建群组
+2.与多名好友成功进行会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.所选截图显示在文本框内
+2.发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入会话界面
+2.点击截图按钮
+3.鼠标进行截图
+4.点击发送或回车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.17进行界面截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.18发送文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.16发送代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入会话界面
+2.点击发送代码按钮
+3.在弹框中选择代码类型
+4.输入代码内容
+5.点击发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出输入代码弹框
+2.成功发送代码并显示代码类型和格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入会话界面
+2.点击发送文件按钮
+3.弹框中选择要发送的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出电脑中的文件夹选择确认
+2.发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出电脑中文件夹选择确认
+2.发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击右侧拓展应用图标
+2.点击主题按钮
+3.选择点击不同主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择点击后自动更换主题
+2.完成主题更换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击头像下的箭头
+2.点击修改头像
+3.点击长传头像按钮
+4.弹窗中选择图片并上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击头像下的箭头
+2.选择在线状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击头像下的箭头
+2.点击退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出下拉菜单
+2.退出登录返回到登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出下拉菜单
+2.选择后自动修改
+3.设置成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出下拉菜单
+2.选择图片上传修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击头像下的箭头
+2.点击修改密码
+3.输入新密码
+4.重复新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出下拉菜单
+2.修改成功</t>
+  </si>
+  <si>
+    <t>1.点击头像下的箭头
+2.点击语言
+3.设置不同种类语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出下拉菜单
+2.设置成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击搜索框
+2.输入用户名或账号
+3.选择与好友会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4搜索好友功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到用户并进行会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +588,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -508,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,6 +631,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB65D1A-E615-450F-948C-8B4E5E688D17}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -856,92 +973,95 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -950,52 +1070,52 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="70" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.3">
@@ -1004,70 +1124,70 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="70" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
+        <v>112</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.3">
@@ -1076,16 +1196,16 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
+        <v>114</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.3">
@@ -1094,371 +1214,386 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>57</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B5:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
